--- a/vignettes/standardisation_outputs/exp4.xlsx
+++ b/vignettes/standardisation_outputs/exp4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +383,16 @@
           <t>p.value</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>conf.low</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>conf.high</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -402,6 +412,12 @@
       <c r="E2">
         <v>9.528311781635386E-175</v>
       </c>
+      <c r="F2">
+        <v>0.8216757340518291</v>
+      </c>
+      <c r="G2">
+        <v>0.9195105875976574</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -421,6 +437,12 @@
       <c r="E3">
         <v>2.047153189486373E-09</v>
       </c>
+      <c r="F3">
+        <v>-0.1088007211649279</v>
+      </c>
+      <c r="G3">
+        <v>-0.05550922784720759</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -440,6 +462,12 @@
       <c r="E4">
         <v>1.167737072446987E-23</v>
       </c>
+      <c r="F4">
+        <v>-0.1743482516071727</v>
+      </c>
+      <c r="G4">
+        <v>-0.1184970953753389</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -459,6 +487,12 @@
       <c r="E5">
         <v>1.891863234041793E-07</v>
       </c>
+      <c r="F5">
+        <v>-0.1021541559357472</v>
+      </c>
+      <c r="G5">
+        <v>-0.04654171088383176</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -478,6 +512,12 @@
       <c r="E6">
         <v>2.065187010821267E-06</v>
       </c>
+      <c r="F6">
+        <v>0.03952281396678342</v>
+      </c>
+      <c r="G6">
+        <v>0.09466632125516136</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -497,6 +537,12 @@
       <c r="E7">
         <v>0.9083076700988412</v>
       </c>
+      <c r="F7">
+        <v>-0.02741228374835072</v>
+      </c>
+      <c r="G7">
+        <v>0.0308315551021813</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -516,6 +562,12 @@
       <c r="E8">
         <v>0.552613258973673</v>
       </c>
+      <c r="F8">
+        <v>-0.001107282487914878</v>
+      </c>
+      <c r="G8">
+        <v>0.0005926691458439048</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -535,6 +587,12 @@
       <c r="E9">
         <v>3.185551674554216E-09</v>
       </c>
+      <c r="F9">
+        <v>-0.09379507011272285</v>
+      </c>
+      <c r="G9">
+        <v>-0.04742364612849419</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -554,6 +612,12 @@
       <c r="E10">
         <v>1.999270499750273E-151</v>
       </c>
+      <c r="F10">
+        <v>-0.4323415511637643</v>
+      </c>
+      <c r="G10">
+        <v>-0.3816422389321277</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -573,6 +637,12 @@
       <c r="E11">
         <v>5.660494604541195E-30</v>
       </c>
+      <c r="F11">
+        <v>-0.1790427958975642</v>
+      </c>
+      <c r="G11">
+        <v>-0.1278309946820979</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -591,6 +661,12 @@
       </c>
       <c r="E12">
         <v>0.5503325925849997</v>
+      </c>
+      <c r="F12">
+        <v>-0.01977429338400982</v>
+      </c>
+      <c r="G12">
+        <v>0.03708617296711418</v>
       </c>
     </row>
   </sheetData>
